--- a/EHOSP/ehosp_2/ward_discharge_entry.xlsx
+++ b/EHOSP/ehosp_2/ward_discharge_entry.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Other computers\My Computer\pythonProject\EHOSP\ehosp_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D08546AF-A036-48E4-8F1D-8371BB74095E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BA41AC-2EBB-4660-B6CA-64C5ACB2EE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="696" yWindow="696" windowWidth="8688" windowHeight="10980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="78">
   <si>
     <t>IPD</t>
   </si>
@@ -269,12 +269,42 @@
 R : Refer
 A : Abscond</t>
   </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Cerebral edema</t>
+  </si>
+  <si>
+    <t>Vomiting</t>
+  </si>
+  <si>
+    <t>HTN - Hypertension</t>
+  </si>
+  <si>
+    <t>Chronic liver disease</t>
+  </si>
+  <si>
+    <t>Chronic lung disease</t>
+  </si>
+  <si>
+    <t>Acute gastritis</t>
+  </si>
+  <si>
+    <t>Malaria</t>
+  </si>
+  <si>
+    <t>Dengue fever</t>
+  </si>
+  <si>
+    <t>CVA - Cerebrovascular accident</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,16 +404,28 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -391,11 +433,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFDEE2E6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -457,11 +508,44 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -695,21 +779,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.44140625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" style="22" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="22" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="23" style="22" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" style="22" customWidth="1"/>
     <col min="5" max="5" width="17.88671875" style="22" customWidth="1"/>
     <col min="6" max="26" width="8.6640625" style="22" customWidth="1"/>
     <col min="27" max="16384" width="14.44140625" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" customFormat="1" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -777,8 +862,8 @@
       <c r="D5" s="23">
         <v>2</v>
       </c>
-      <c r="E5" s="22">
-        <v>1</v>
+      <c r="E5" s="22" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4810,8 +4895,8 @@
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <conditionalFormatting sqref="A1:A4 A8:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -32918,9 +33003,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -32998,7 +33083,6 @@
       <c r="A6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="13"/>
     </row>
     <row r="7" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="12" t="s">
@@ -33008,11 +33092,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:26" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="13" t="s">
+        <v>69</v>
+      </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13"/>
     </row>
@@ -33020,7 +33106,9 @@
       <c r="A9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="27" t="s">
+        <v>71</v>
+      </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13"/>
     </row>
@@ -33028,7 +33116,9 @@
       <c r="A10" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="13" t="s">
+        <v>74</v>
+      </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13"/>
     </row>
@@ -33036,19 +33126,25 @@
       <c r="A11" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
@@ -33062,7 +33158,9 @@
       <c r="A15" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="17" t="s">
@@ -33082,7 +33180,9 @@
       <c r="A18" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
@@ -33118,7 +33218,9 @@
       <c r="A23" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="13"/>
+      <c r="B23" s="25" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
@@ -33162,7 +33264,7 @@
       <c r="A30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="13"/>
+      <c r="B30" s="25"/>
     </row>
     <row r="31" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="12" t="s">
@@ -37051,6 +37153,12 @@
       <c r="B1001" s="13"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B5 B7:B8 B24:B29 B31:B1048576 B10:B22">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B8 B10:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
